--- a/Code/Results/Cases/Case_9_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_52/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.61022960441401</v>
+        <v>20.58868034438946</v>
       </c>
       <c r="C2">
-        <v>14.78166386085184</v>
+        <v>16.02894520392756</v>
       </c>
       <c r="D2">
-        <v>4.732306113129308</v>
+        <v>5.186647808355608</v>
       </c>
       <c r="E2">
-        <v>8.421800713506318</v>
+        <v>8.59540353880648</v>
       </c>
       <c r="F2">
-        <v>30.5575442777325</v>
+        <v>28.24008309882925</v>
       </c>
       <c r="G2">
-        <v>39.8209615071117</v>
+        <v>35.2993952516663</v>
       </c>
       <c r="H2">
-        <v>2.238571269024796</v>
+        <v>2.168733346558544</v>
       </c>
       <c r="I2">
-        <v>3.002344706983321</v>
+        <v>2.849429029249221</v>
       </c>
       <c r="J2">
-        <v>12.58324359285573</v>
+        <v>12.01338678363642</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.337868327489232</v>
+        <v>14.02897890154222</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.16437183079626</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.299715326468755</v>
       </c>
       <c r="O2">
-        <v>15.13666106995309</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>15.51102672671086</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.23227385882666</v>
+        <v>19.233698406614</v>
       </c>
       <c r="C3">
-        <v>13.84137138011506</v>
+        <v>14.91404934457529</v>
       </c>
       <c r="D3">
-        <v>4.572347616017137</v>
+        <v>4.996993411986452</v>
       </c>
       <c r="E3">
-        <v>8.143162631771499</v>
+        <v>8.333223728951944</v>
       </c>
       <c r="F3">
-        <v>29.62452642330042</v>
+        <v>27.55864092720042</v>
       </c>
       <c r="G3">
-        <v>38.33761766925505</v>
+        <v>34.29004895485374</v>
       </c>
       <c r="H3">
-        <v>2.521696618801792</v>
+        <v>2.429955237118597</v>
       </c>
       <c r="I3">
-        <v>3.235366284272942</v>
+        <v>3.048656487601202</v>
       </c>
       <c r="J3">
-        <v>12.38978311934225</v>
+        <v>11.8669463585607</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.218104614343945</v>
+        <v>14.129876971751</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.09067357314207</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.201036996693429</v>
       </c>
       <c r="O3">
-        <v>14.31227194098839</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>14.64456432336016</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.33479057945148</v>
+        <v>18.35087764307224</v>
       </c>
       <c r="C4">
-        <v>13.2373750902989</v>
+        <v>14.19510271821439</v>
       </c>
       <c r="D4">
-        <v>4.47280509965937</v>
+        <v>4.878933349387736</v>
       </c>
       <c r="E4">
-        <v>7.966946969924195</v>
+        <v>8.16776749502837</v>
       </c>
       <c r="F4">
-        <v>29.04243893274189</v>
+        <v>27.13475485612726</v>
       </c>
       <c r="G4">
-        <v>37.40563642714475</v>
+        <v>33.66338352322706</v>
       </c>
       <c r="H4">
-        <v>2.701267712813052</v>
+        <v>2.595783546542308</v>
       </c>
       <c r="I4">
-        <v>3.383644909776753</v>
+        <v>3.17584479135822</v>
       </c>
       <c r="J4">
-        <v>12.2720086629292</v>
+        <v>11.77556979641555</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.14217426270474</v>
+        <v>14.18842978634642</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.06495412117249</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.138424286621684</v>
       </c>
       <c r="O4">
-        <v>13.78429798430167</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>14.0886860240635</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.95487840623388</v>
+        <v>17.97723461839841</v>
       </c>
       <c r="C5">
-        <v>12.99972470366706</v>
+        <v>13.90719193906638</v>
       </c>
       <c r="D5">
-        <v>4.435612094990034</v>
+        <v>4.833747919625711</v>
       </c>
       <c r="E5">
-        <v>7.894402844961948</v>
+        <v>8.099708359944312</v>
       </c>
       <c r="F5">
-        <v>28.78076901146157</v>
+        <v>26.94180591059568</v>
       </c>
       <c r="G5">
-        <v>36.98036124671027</v>
+        <v>33.37187238075518</v>
       </c>
       <c r="H5">
-        <v>2.776283026448157</v>
+        <v>2.665063235323761</v>
       </c>
       <c r="I5">
-        <v>3.448200936378922</v>
+        <v>3.232168108797397</v>
       </c>
       <c r="J5">
-        <v>12.2163604448695</v>
+        <v>11.73135024032577</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.109742621093329</v>
+        <v>14.19977965975168</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.05027552256195</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.111657541347648</v>
       </c>
       <c r="O5">
-        <v>13.56764563098987</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>13.85962997160211</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.88956652993301</v>
+        <v>17.91313956705891</v>
       </c>
       <c r="C6">
-        <v>12.97843401611811</v>
+        <v>13.87564972343505</v>
       </c>
       <c r="D6">
-        <v>4.433925659947667</v>
+        <v>4.830242436610012</v>
       </c>
       <c r="E6">
-        <v>7.882934480947057</v>
+        <v>8.08890733545285</v>
       </c>
       <c r="F6">
-        <v>28.7097904530596</v>
+        <v>26.88650510494161</v>
       </c>
       <c r="G6">
-        <v>36.85979169181904</v>
+        <v>33.28109353014382</v>
       </c>
       <c r="H6">
-        <v>2.789275612074936</v>
+        <v>2.67702977976709</v>
       </c>
       <c r="I6">
-        <v>3.462591922037865</v>
+        <v>3.245789262796132</v>
       </c>
       <c r="J6">
-        <v>12.19744464132349</v>
+        <v>11.71588545578729</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.103237955518501</v>
+        <v>14.18739641608648</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.03704023035164</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.106276668976693</v>
       </c>
       <c r="O6">
-        <v>13.53604148495087</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>13.8253000172823</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.32587309531352</v>
+        <v>18.34200959810303</v>
       </c>
       <c r="C7">
-        <v>13.28374818173899</v>
+        <v>14.2294885577391</v>
       </c>
       <c r="D7">
-        <v>4.484451000687095</v>
+        <v>4.895865376760444</v>
       </c>
       <c r="E7">
-        <v>7.967743793221373</v>
+        <v>8.170175849862829</v>
       </c>
       <c r="F7">
-        <v>28.96483779727935</v>
+        <v>27.03431463566391</v>
       </c>
       <c r="G7">
-        <v>37.26596943047306</v>
+        <v>33.59837370084052</v>
       </c>
       <c r="H7">
-        <v>2.703476324393823</v>
+        <v>2.59851880207084</v>
       </c>
       <c r="I7">
-        <v>3.394062551946535</v>
+        <v>3.188488308461324</v>
       </c>
       <c r="J7">
-        <v>12.24493500308694</v>
+        <v>11.69609085451296</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.138812040029032</v>
+        <v>14.13383257413977</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.02032285824406</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.134553561396689</v>
       </c>
       <c r="O7">
-        <v>13.79393126973481</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>14.0972466171507</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.14100771033131</v>
+        <v>20.12635657312376</v>
       </c>
       <c r="C8">
-        <v>14.52363735739228</v>
+        <v>15.68632804747672</v>
       </c>
       <c r="D8">
-        <v>4.692819501334357</v>
+        <v>5.156880406554221</v>
       </c>
       <c r="E8">
-        <v>8.329084084879149</v>
+        <v>8.513829609345242</v>
       </c>
       <c r="F8">
-        <v>30.14361129450451</v>
+        <v>27.81402592552503</v>
       </c>
       <c r="G8">
-        <v>39.14493557698815</v>
+        <v>34.97979771196412</v>
       </c>
       <c r="H8">
-        <v>2.336540512438722</v>
+        <v>2.261406241370741</v>
       </c>
       <c r="I8">
-        <v>3.094047746314828</v>
+        <v>2.93392186807995</v>
       </c>
       <c r="J8">
-        <v>12.48226452838316</v>
+        <v>11.75044659261754</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.293331783518862</v>
+        <v>13.96599623039185</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.04436997179782</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.259640490148461</v>
       </c>
       <c r="O8">
-        <v>14.87245057848341</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>15.23299706799167</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.30210341845989</v>
+        <v>23.23172929326337</v>
       </c>
       <c r="C9">
-        <v>16.66493392497435</v>
+        <v>18.22394107883474</v>
       </c>
       <c r="D9">
-        <v>5.069497105771409</v>
+        <v>5.610765199107331</v>
       </c>
       <c r="E9">
-        <v>8.993148307744367</v>
+        <v>9.141722874588305</v>
       </c>
       <c r="F9">
-        <v>32.49726848557392</v>
+        <v>29.53056353879575</v>
       </c>
       <c r="G9">
-        <v>42.8686277882644</v>
+        <v>37.6217464022434</v>
       </c>
       <c r="H9">
-        <v>1.658956289166642</v>
+        <v>1.637704975829697</v>
       </c>
       <c r="I9">
-        <v>2.530257573845367</v>
+        <v>2.513909401176329</v>
       </c>
       <c r="J9">
-        <v>13.00063341780527</v>
+        <v>12.08945153700103</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.582420902544087</v>
+        <v>13.73260165421854</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.35644013354463</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.49701162901315</v>
       </c>
       <c r="O9">
-        <v>16.78929266889033</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>17.2452366159254</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.40023950149362</v>
+        <v>25.29064064401567</v>
       </c>
       <c r="C10">
-        <v>18.14429479701553</v>
+        <v>19.89789969293204</v>
       </c>
       <c r="D10">
-        <v>5.31134687139666</v>
+        <v>5.927694571772268</v>
       </c>
       <c r="E10">
-        <v>9.320129855467824</v>
+        <v>9.4503485362952</v>
       </c>
       <c r="F10">
-        <v>33.78983294484511</v>
+        <v>30.26864086918172</v>
       </c>
       <c r="G10">
-        <v>44.91574294158163</v>
+        <v>39.33489351116287</v>
       </c>
       <c r="H10">
-        <v>1.91407876315455</v>
+        <v>1.894925038903822</v>
       </c>
       <c r="I10">
-        <v>2.805843789323276</v>
+        <v>2.833424942714199</v>
       </c>
       <c r="J10">
-        <v>13.26683517214834</v>
+        <v>11.93887314632974</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.717249711791555</v>
+        <v>13.35446280876491</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.45779949952322</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.595766193453444</v>
       </c>
       <c r="O10">
-        <v>18.00375807534081</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>18.51377558654121</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.46333105651142</v>
+        <v>26.35388081807699</v>
       </c>
       <c r="C11">
-        <v>18.97066927824518</v>
+        <v>20.49830137419685</v>
       </c>
       <c r="D11">
-        <v>5.16316178045475</v>
+        <v>5.764493391001553</v>
       </c>
       <c r="E11">
-        <v>8.413576446953767</v>
+        <v>8.508991936565561</v>
       </c>
       <c r="F11">
-        <v>31.33422131971025</v>
+        <v>27.78225075656429</v>
       </c>
       <c r="G11">
-        <v>41.36138581667678</v>
+        <v>36.93684013872108</v>
       </c>
       <c r="H11">
-        <v>2.844562138628349</v>
+        <v>2.822423359247195</v>
       </c>
       <c r="I11">
-        <v>2.925397656035653</v>
+        <v>2.934406038196534</v>
       </c>
       <c r="J11">
-        <v>12.44125261436226</v>
+        <v>10.68810046374178</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.308108480371695</v>
+        <v>12.21309690764973</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10.32293330813867</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.208482539027729</v>
       </c>
       <c r="O11">
-        <v>17.80917660423346</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>18.27654286755331</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.94272608175213</v>
+        <v>26.84222827687359</v>
       </c>
       <c r="C12">
-        <v>19.31293451267095</v>
+        <v>20.62885155985489</v>
       </c>
       <c r="D12">
-        <v>4.975837376919551</v>
+        <v>5.526306509616032</v>
       </c>
       <c r="E12">
-        <v>7.76801304836592</v>
+        <v>7.821232135428138</v>
       </c>
       <c r="F12">
-        <v>29.07024587416276</v>
+        <v>25.71041002394012</v>
       </c>
       <c r="G12">
-        <v>38.06739649532324</v>
+        <v>34.49342804654786</v>
       </c>
       <c r="H12">
-        <v>4.124211726451554</v>
+        <v>4.108286693496737</v>
       </c>
       <c r="I12">
-        <v>2.948473245173818</v>
+        <v>2.952544076730578</v>
       </c>
       <c r="J12">
-        <v>11.72508396886586</v>
+        <v>9.920132113818457</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.08315105682914</v>
+        <v>11.48725054306152</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.460112006469485</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.012913740193518</v>
       </c>
       <c r="O12">
-        <v>17.36847124189773</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>17.78880852573535</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.0137767137982</v>
+        <v>26.93119559533234</v>
       </c>
       <c r="C13">
-        <v>19.37229263279395</v>
+        <v>20.47484002812563</v>
       </c>
       <c r="D13">
-        <v>4.75978596091209</v>
+        <v>5.216740645740837</v>
       </c>
       <c r="E13">
-        <v>7.323671034461694</v>
+        <v>7.333968911970444</v>
       </c>
       <c r="F13">
-        <v>26.67992696629225</v>
+        <v>23.7878834855866</v>
       </c>
       <c r="G13">
-        <v>34.52137032107544</v>
+        <v>31.53299153999796</v>
       </c>
       <c r="H13">
-        <v>5.452734708277165</v>
+        <v>5.443801308752485</v>
       </c>
       <c r="I13">
-        <v>2.902861978862667</v>
+        <v>2.915048663354621</v>
       </c>
       <c r="J13">
-        <v>11.00791861751805</v>
+        <v>9.511584495542177</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.993091841974411</v>
+        <v>10.98730026346765</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.744809771319826</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.95721773841857</v>
       </c>
       <c r="O13">
-        <v>16.71433053641253</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>17.07641239061956</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.8796701847554</v>
+        <v>26.81381279506104</v>
       </c>
       <c r="C14">
-        <v>19.29905711670375</v>
+        <v>20.24624707975537</v>
       </c>
       <c r="D14">
-        <v>4.598091935978334</v>
+        <v>4.973722350146226</v>
       </c>
       <c r="E14">
-        <v>7.157427053435337</v>
+        <v>7.145405629952934</v>
       </c>
       <c r="F14">
-        <v>24.92514920964736</v>
+        <v>22.48389667283575</v>
       </c>
       <c r="G14">
-        <v>31.86571719773562</v>
+        <v>29.18362389308543</v>
       </c>
       <c r="H14">
-        <v>6.469932415200705</v>
+        <v>6.473791663463079</v>
       </c>
       <c r="I14">
-        <v>2.841394677819829</v>
+        <v>2.865346117051345</v>
       </c>
       <c r="J14">
-        <v>10.50243946256381</v>
+        <v>9.357924934892694</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.014457330731899</v>
+        <v>10.72544333358179</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.314638856021418</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.001308742669986</v>
       </c>
       <c r="O14">
-        <v>16.15378770444932</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>16.46868642338585</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.75770052452868</v>
+        <v>26.69796061260647</v>
       </c>
       <c r="C15">
-        <v>19.23540776556377</v>
+        <v>20.14146754739415</v>
       </c>
       <c r="D15">
-        <v>4.554958670726752</v>
+        <v>4.904178639050344</v>
       </c>
       <c r="E15">
-        <v>7.131352249901994</v>
+        <v>7.117834360186023</v>
       </c>
       <c r="F15">
-        <v>24.44913264278776</v>
+        <v>22.17158917845333</v>
       </c>
       <c r="G15">
-        <v>31.12234146969261</v>
+        <v>28.47637077045235</v>
       </c>
       <c r="H15">
-        <v>6.710836800399574</v>
+        <v>6.713652405512657</v>
       </c>
       <c r="I15">
-        <v>2.812646639761124</v>
+        <v>2.842844674405784</v>
       </c>
       <c r="J15">
-        <v>10.37168825222338</v>
+        <v>9.369583126555915</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.027090995716921</v>
+        <v>10.68495124443909</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.228573674111804</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.019787281215216</v>
       </c>
       <c r="O15">
-        <v>15.974847854432</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>16.27518174301336</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.8961358081971</v>
+        <v>25.85367757941252</v>
       </c>
       <c r="C16">
-        <v>18.65161936152078</v>
+        <v>19.54556180776338</v>
       </c>
       <c r="D16">
-        <v>4.493169652011104</v>
+        <v>4.787597539391416</v>
       </c>
       <c r="E16">
-        <v>7.05641612908034</v>
+        <v>7.070194476836059</v>
       </c>
       <c r="F16">
-        <v>24.25319488044319</v>
+        <v>22.39308021237883</v>
       </c>
       <c r="G16">
-        <v>30.70876685533607</v>
+        <v>27.71389152201453</v>
       </c>
       <c r="H16">
-        <v>6.51412360453159</v>
+        <v>6.512234234885275</v>
       </c>
       <c r="I16">
-        <v>2.664294205084609</v>
+        <v>2.722189443341607</v>
       </c>
       <c r="J16">
-        <v>10.37819837484961</v>
+        <v>9.848712858874325</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.978572313030293</v>
+        <v>10.93836381110709</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.453176081004289</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.98017029133961</v>
       </c>
       <c r="O16">
-        <v>15.56813078018756</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>15.84730441322329</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.29383825332841</v>
+        <v>25.25502642769896</v>
       </c>
       <c r="C17">
-        <v>18.23581634137341</v>
+        <v>19.19959937621549</v>
       </c>
       <c r="D17">
-        <v>4.53368436820269</v>
+        <v>4.833124556618673</v>
       </c>
       <c r="E17">
-        <v>7.06071982330286</v>
+        <v>7.099315093063789</v>
       </c>
       <c r="F17">
-        <v>25.05069850012067</v>
+        <v>23.22975818713278</v>
       </c>
       <c r="G17">
-        <v>31.84487119123954</v>
+        <v>28.48388403382381</v>
       </c>
       <c r="H17">
-        <v>5.783708850493801</v>
+        <v>5.778508287269178</v>
       </c>
       <c r="I17">
-        <v>2.583154854093829</v>
+        <v>2.655481014006863</v>
       </c>
       <c r="J17">
-        <v>10.65079887037449</v>
+        <v>10.26440635191909</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.915203308018888</v>
+        <v>11.28119074593287</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>8.824720703700502</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.914166961696857</v>
       </c>
       <c r="O17">
-        <v>15.56388504058357</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>15.85382929354164</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.86201523915679</v>
+        <v>24.81581796322867</v>
       </c>
       <c r="C18">
-        <v>17.89178857975227</v>
+        <v>19.01837171649139</v>
       </c>
       <c r="D18">
-        <v>4.663683476903766</v>
+        <v>5.010621459849012</v>
       </c>
       <c r="E18">
-        <v>7.283823538305658</v>
+        <v>7.348684977420981</v>
       </c>
       <c r="F18">
-        <v>26.85612408891728</v>
+        <v>24.80853714120849</v>
       </c>
       <c r="G18">
-        <v>34.53971664780653</v>
+        <v>30.62680742379698</v>
       </c>
       <c r="H18">
-        <v>4.52960948160671</v>
+        <v>4.522029564578585</v>
       </c>
       <c r="I18">
-        <v>2.548824915345822</v>
+        <v>2.624992437911386</v>
       </c>
       <c r="J18">
-        <v>11.20866300692379</v>
+        <v>10.78214183264609</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.91577127283968</v>
+        <v>11.81498959567486</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.431991551295349</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.899084741242747</v>
       </c>
       <c r="O18">
-        <v>15.89859016315358</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>16.2286481516998</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.60220144793257</v>
+        <v>24.54123472314189</v>
       </c>
       <c r="C19">
-        <v>17.714786061586</v>
+        <v>19.05812759932044</v>
       </c>
       <c r="D19">
-        <v>4.877857865504275</v>
+        <v>5.299619346660866</v>
       </c>
       <c r="E19">
-        <v>7.861263861630253</v>
+        <v>7.953589426254852</v>
       </c>
       <c r="F19">
-        <v>29.23074564456652</v>
+        <v>26.80316509223135</v>
       </c>
       <c r="G19">
-        <v>38.06223754600925</v>
+        <v>33.47494234275972</v>
       </c>
       <c r="H19">
-        <v>3.025975527196314</v>
+        <v>3.017311112296917</v>
       </c>
       <c r="I19">
-        <v>2.568225103987841</v>
+        <v>2.641722518266425</v>
       </c>
       <c r="J19">
-        <v>11.92465807761723</v>
+        <v>11.3563808299313</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.08671213017525</v>
+        <v>12.46212307700775</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.17432427556799</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.04127835777466</v>
       </c>
       <c r="O19">
-        <v>16.49045924784572</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>16.8775353615156</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.85700931984177</v>
+        <v>24.76039892954695</v>
       </c>
       <c r="C20">
-        <v>17.88523098989777</v>
+        <v>19.59372270033428</v>
       </c>
       <c r="D20">
-        <v>5.27925928387845</v>
+        <v>5.851680234902995</v>
       </c>
       <c r="E20">
-        <v>9.233995454260533</v>
+        <v>9.362478911625606</v>
       </c>
       <c r="F20">
-        <v>33.23834276385217</v>
+        <v>30.00350026338936</v>
       </c>
       <c r="G20">
-        <v>44.00978545680719</v>
+        <v>38.3970698437129</v>
       </c>
       <c r="H20">
-        <v>1.792460300799024</v>
+        <v>1.78652933546484</v>
       </c>
       <c r="I20">
-        <v>2.718524861144826</v>
+        <v>2.766780200511912</v>
       </c>
       <c r="J20">
-        <v>13.11663356031749</v>
+        <v>12.10044911119519</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.67143732691925</v>
+        <v>13.40287335478813</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>11.36818712536613</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.564116597153577</v>
       </c>
       <c r="O20">
-        <v>17.71890349776713</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>18.20875092478978</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.36452801467248</v>
+        <v>26.22699706024186</v>
       </c>
       <c r="C21">
-        <v>18.92659111293415</v>
+        <v>20.73156636260445</v>
       </c>
       <c r="D21">
-        <v>5.503908226530251</v>
+        <v>6.261285472962243</v>
       </c>
       <c r="E21">
-        <v>9.686758543718774</v>
+        <v>9.840344140524126</v>
       </c>
       <c r="F21">
-        <v>34.78782968114857</v>
+        <v>30.47494842873335</v>
       </c>
       <c r="G21">
-        <v>46.40144918417234</v>
+        <v>41.28290463972909</v>
       </c>
       <c r="H21">
-        <v>2.150835477067314</v>
+        <v>2.101641855319893</v>
       </c>
       <c r="I21">
-        <v>3.009855547558981</v>
+        <v>3.003028217445029</v>
       </c>
       <c r="J21">
-        <v>13.50398861011171</v>
+        <v>11.17493799195072</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.874153660373521</v>
+        <v>13.05049595585636</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.38557619574889</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.715357025074316</v>
       </c>
       <c r="O21">
-        <v>18.73915335609101</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>19.29035934348715</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.32076481143844</v>
+        <v>27.15715729916795</v>
       </c>
       <c r="C22">
-        <v>19.5469005174279</v>
+        <v>21.39560932212437</v>
       </c>
       <c r="D22">
-        <v>5.61983058081753</v>
+        <v>6.49960503207825</v>
       </c>
       <c r="E22">
-        <v>9.905950389004992</v>
+        <v>10.0779032916183</v>
       </c>
       <c r="F22">
-        <v>35.68860114122012</v>
+        <v>30.66371541783666</v>
       </c>
       <c r="G22">
-        <v>47.81493410840499</v>
+        <v>43.1211970043758</v>
       </c>
       <c r="H22">
-        <v>2.375691274716341</v>
+        <v>2.298819254126299</v>
       </c>
       <c r="I22">
-        <v>3.191502166824965</v>
+        <v>3.148067660413219</v>
       </c>
       <c r="J22">
-        <v>13.73322842579467</v>
+        <v>10.51775796506702</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.974605156594857</v>
+        <v>12.79301592562795</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.37104060297642</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.783946895842654</v>
       </c>
       <c r="O22">
-        <v>19.32887967576453</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>19.91573635776952</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.81767515146366</v>
+        <v>26.66839937234261</v>
       </c>
       <c r="C23">
-        <v>19.17526001849766</v>
+        <v>21.01784157434637</v>
       </c>
       <c r="D23">
-        <v>5.546293359161582</v>
+        <v>6.346479224834795</v>
       </c>
       <c r="E23">
-        <v>9.787572177309679</v>
+        <v>9.94501163895878</v>
       </c>
       <c r="F23">
-        <v>35.28162757537185</v>
+        <v>30.70272878233274</v>
       </c>
       <c r="G23">
-        <v>47.18998999421324</v>
+        <v>42.12741395752061</v>
       </c>
       <c r="H23">
-        <v>2.257152796256372</v>
+        <v>2.196093907168768</v>
       </c>
       <c r="I23">
-        <v>3.091079035655691</v>
+        <v>3.066755495821157</v>
       </c>
       <c r="J23">
-        <v>13.63853943188435</v>
+        <v>11.01150216092194</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.924146427973151</v>
+        <v>12.99510463643984</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.45842294373496</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.752041908580845</v>
       </c>
       <c r="O23">
-        <v>19.00512989921323</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>19.57340879470618</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.82171140191884</v>
+        <v>24.72303545057978</v>
       </c>
       <c r="C24">
-        <v>17.78691859795983</v>
+        <v>19.52374276694096</v>
       </c>
       <c r="D24">
-        <v>5.282462672157609</v>
+        <v>5.864007286042012</v>
       </c>
       <c r="E24">
-        <v>9.332534684201635</v>
+        <v>9.464023043899733</v>
       </c>
       <c r="F24">
-        <v>33.60177438073094</v>
+        <v>30.31534828014287</v>
       </c>
       <c r="G24">
-        <v>44.5748504849803</v>
+        <v>38.85827335931375</v>
       </c>
       <c r="H24">
-        <v>1.799137829710419</v>
+        <v>1.792485768427525</v>
       </c>
       <c r="I24">
-        <v>2.711857873671634</v>
+        <v>2.757501914218184</v>
       </c>
       <c r="J24">
-        <v>13.23837801490467</v>
+        <v>12.20625096672509</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.724581909678317</v>
+        <v>13.54055610172378</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.51903293662545</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.613133524731881</v>
       </c>
       <c r="O24">
-        <v>17.75278156528207</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>18.25063342673844</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.48387785989919</v>
+        <v>22.42962137227712</v>
       </c>
       <c r="C25">
-        <v>16.18311978384069</v>
+        <v>17.64147623559625</v>
       </c>
       <c r="D25">
-        <v>4.988762180907345</v>
+        <v>5.498933332843623</v>
       </c>
       <c r="E25">
-        <v>8.821023623975782</v>
+        <v>8.976164605321411</v>
       </c>
       <c r="F25">
-        <v>31.74915173120478</v>
+        <v>29.01499315585759</v>
       </c>
       <c r="G25">
-        <v>41.66717078462143</v>
+        <v>36.65943788719076</v>
       </c>
       <c r="H25">
-        <v>1.839719133054744</v>
+        <v>1.802740385877642</v>
       </c>
       <c r="I25">
-        <v>2.697269610151236</v>
+        <v>2.598988861519453</v>
       </c>
       <c r="J25">
-        <v>12.81473305679481</v>
+        <v>12.03926981173893</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.501347423409793</v>
+        <v>13.76072870891656</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.21520895620981</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.431818843034617</v>
       </c>
       <c r="O25">
-        <v>16.30955120690707</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>16.73795854438767</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
